--- a/output2.xlsx
+++ b/output2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meerajkanaparthi/PycharmProjects/planesJinga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2AAB3EF3-DB58-9E43-A417-0BB255246391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30DB2C-8942-7D43-9648-7020D2CDB095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="output200" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -595,9 +594,6 @@
     <t>https://en.wikipedia.org/Akaflieg München</t>
   </si>
   <si>
-    <t>Egon Scheibe, Kurt schmidt and Tony Troeger[1]</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/Egon Scheibe, Kurt schmidt and Tony Troeger[1]</t>
   </si>
   <si>
@@ -731,6 +727,9 @@
   </si>
   <si>
     <t>7.24 kg/kW (11.9 lb/hp)</t>
+  </si>
+  <si>
+    <t>Egon Scheibe, Kurt schmidt and Tony Troeger</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1023,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1659,113 +1658,113 @@
         <v>186</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O:O, ""en"", ""te"")"),"ఎగాన్ స్కీబ్, కర్ట్ ష్మిత్ మరియు టోనీ ట్రోగర్ ")</f>
+        <v xml:space="preserve">ఎగాన్ స్కీబ్, కర్ట్ ష్మిత్ మరియు టోనీ ట్రోగర్ </v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O:O, ""en"", ""te"")"),"ఎగాన్ స్కీబ్, కర్ట్ ష్మిత్ మరియు టోనీ ట్రోగర్ [1]")</f>
-        <v>ఎగాన్ స్కీబ్, కర్ట్ ష్మిత్ మరియు టోనీ ట్రోగర్ [1]</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="P2" s="1">
         <v>1935</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="AC2" s="1">
         <v>15.05</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="AI2" s="1">
         <v>28</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="BE2" s="2"/>
     </row>
     <row r="3" spans="1:195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A:A, ""en"", ""te"")"),"బ్లోచ్ MB.220")</f>
         <v>బ్లోచ్ MB.220</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(F:F, ""en"", ""te"")"),"విమానాల")</f>
         <v>విమానాల</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="K3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(L:L, ""en"", ""te"")"),"Société డెస్ ఏవియన్లు మార్సెల్ బ్లోచ్")</f>
         <v>Société డెస్ ఏవియన్లు మార్సెల్ బ్లోచ్</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P3" s="1">
         <v>1936</v>
@@ -1774,85 +1773,85 @@
         <v>17</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T3" s="1">
         <v>3</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="AM3" s="1">
         <v>1938</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AO3" s="1">
         <v>1950</v>
       </c>
       <c r="AP3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AT3" s="1">
         <v>16</v>
       </c>
       <c r="AU3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="AW3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(AX:AX, ""en"", ""te"")"),"1 × గ్నోమ్-రోన్ 14 ఎన్ -17 14-సిల్. రెండు-వరుస ఎయిర్-కూల్డ్ పిస్టన్ ఇంజన్లు, 682 kW (915 HP) 1,750 మీ (5,740 అడుగులు) (ఎడమ చేతి భ్రమణం)")</f>
         <v>1 × గ్నోమ్-రోన్ 14 ఎన్ -17 14-సిల్. రెండు-వరుస ఎయిర్-కూల్డ్ పిస్టన్ ఇంజన్లు, 682 kW (915 HP) 1,750 మీ (5,740 అడుగులు) (ఎడమ చేతి భ్రమణం)</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AY3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(AZ:AZ, ""en"", ""te"")"),"3-బ్లేడెడ్ రేటియర్ వేరియబుల్-పిచ్ ప్రొపెల్లర్లు")</f>
         <v>3-బ్లేడెడ్ రేటియర్ వేరియబుల్-పిచ్ ప్రొపెల్లర్లు</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="BE3" s="2"/>
     </row>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meerajkanaparthi/PycharmProjects/planesJinga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30DB2C-8942-7D43-9648-7020D2CDB095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C863E-1B29-2949-803F-E2CCD1E5BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,9 +669,6 @@
     <t>https://en.wikipedia.org/Société des Avions Marcel Bloch</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>19.6 m (64 ft 4 in)</t>
   </si>
   <si>
@@ -730,6 +727,9 @@
   </si>
   <si>
     <t>Egon Scheibe, Kurt schmidt and Tony Troeger</t>
+  </si>
+  <si>
+    <t>"D.332, D.333, D.338"</t>
   </si>
 </sst>
 </file>
@@ -787,11 +787,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,9 +1022,9 @@
   </sheetPr>
   <dimension ref="A1:GM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1658,7 +1659,7 @@
         <v>186</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N2" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(O:O, ""en"", ""te"")"),"ఎగాన్ స్కీబ్, కర్ట్ ష్మిత్ మరియు టోనీ ట్రోగర్ ")</f>
@@ -1772,86 +1773,86 @@
       <c r="Q3" s="1">
         <v>17</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>212</v>
+      <c r="R3" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="T3" s="1">
         <v>3</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="AM3" s="1">
         <v>1938</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO3" s="1">
         <v>1950</v>
       </c>
       <c r="AP3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AT3" s="1">
         <v>16</v>
       </c>
       <c r="AU3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="AW3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(AX:AX, ""en"", ""te"")"),"1 × గ్నోమ్-రోన్ 14 ఎన్ -17 14-సిల్. రెండు-వరుస ఎయిర్-కూల్డ్ పిస్టన్ ఇంజన్లు, 682 kW (915 HP) 1,750 మీ (5,740 అడుగులు) (ఎడమ చేతి భ్రమణం)")</f>
         <v>1 × గ్నోమ్-రోన్ 14 ఎన్ -17 14-సిల్. రెండు-వరుస ఎయిర్-కూల్డ్ పిస్టన్ ఇంజన్లు, 682 kW (915 HP) 1,750 మీ (5,740 అడుగులు) (ఎడమ చేతి భ్రమణం)</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AY3" s="1" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(AZ:AZ, ""en"", ""te"")"),"3-బ్లేడెడ్ రేటియర్ వేరియబుల్-పిచ్ ప్రొపెల్లర్లు")</f>
         <v>3-బ్లేడెడ్ రేటియర్ వేరియబుల్-పిచ్ ప్రొపెల్లర్లు</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="BE3" s="2"/>
     </row>
@@ -1876,5 +1877,6 @@
     <hyperlink ref="AP3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>